--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,54 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
@@ -115,22 +115,19 @@
     <t>better</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>good</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
+    <t>first</t>
   </si>
   <si>
     <t>worth</t>
@@ -139,43 +136,31 @@
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>please</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -539,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,7 +535,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
@@ -658,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>31</v>
@@ -758,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.7241379310344828</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +817,13 @@
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7222222222222222</v>
+        <v>0.68</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.775</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.68</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.5666666666666667</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6571428571428571</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.4722222222222222</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L13">
         <v>17</v>
@@ -1150,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.4166666666666667</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.3636363636363636</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5957446808510638</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.2714025500910747</v>
+        <v>0.2695810564663024</v>
       </c>
       <c r="L16">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M16">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.2542372881355932</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,13 +1343,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1376,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.2112676056338028</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1417,13 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.2</v>
+        <v>0.05572289156626506</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.1967213114754098</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1493,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1666666666666667</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.1368421052631579</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>82</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1567,13 @@
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.05653710247349823</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>267</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1593,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.04969879518072289</v>
+        <v>0.02649769585253456</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1626,137 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.04814814814814815</v>
-      </c>
-      <c r="L24">
-        <v>26</v>
-      </c>
-      <c r="M24">
-        <v>26</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.04105571847507331</v>
-      </c>
-      <c r="L25">
-        <v>14</v>
-      </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="L26">
-        <v>24</v>
-      </c>
-      <c r="M26">
-        <v>24</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.03201024327784891</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.02534562211981567</v>
-      </c>
-      <c r="L28">
-        <v>44</v>
-      </c>
-      <c r="M28">
-        <v>44</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
